--- a/data/trans_orig/P70B_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>76376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59978</v>
+        <v>59693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88484</v>
+        <v>89398</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7482304537342364</v>
+        <v>0.7482304537342361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5875904153883472</v>
+        <v>0.5847956592646582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.866851598707969</v>
+        <v>0.8758055209007731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -762,19 +762,19 @@
         <v>80516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71304</v>
+        <v>70707</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87023</v>
+        <v>86727</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8776207283964663</v>
+        <v>0.8776207283964664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7772186074249713</v>
+        <v>0.7707086120604189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9485540149593129</v>
+        <v>0.945325747151277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -783,19 +783,19 @@
         <v>156891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138028</v>
+        <v>137338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172110</v>
+        <v>171267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8094768640406604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7121539756202061</v>
+        <v>0.7085934696356603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8879988593830135</v>
+        <v>0.8836492087063644</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13591</v>
+        <v>12677</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42097</v>
+        <v>42382</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2517695462657637</v>
+        <v>0.2517695462657636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1331484012920315</v>
+        <v>0.1241944790992267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4124095846116529</v>
+        <v>0.4152043407353416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>11227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4720</v>
+        <v>5016</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20439</v>
+        <v>21036</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1223792716035336</v>
+        <v>0.1223792716035337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05144598504068704</v>
+        <v>0.05467425284872323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2227813925750288</v>
+        <v>0.2292913879395812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -854,19 +854,19 @@
         <v>36927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21708</v>
+        <v>22551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55790</v>
+        <v>56480</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1905231359593396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1120011406169864</v>
+        <v>0.1163507912936355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2878460243797938</v>
+        <v>0.2914065303643401</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>341463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>320711</v>
+        <v>320651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>358109</v>
+        <v>357616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8624551100136729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8100407244960826</v>
+        <v>0.8098884378900685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.904497374902709</v>
+        <v>0.9032540720080344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>256</v>
@@ -979,19 +979,19 @@
         <v>273280</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>258675</v>
+        <v>258722</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>284323</v>
+        <v>285099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8561261634941469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8103724862362642</v>
+        <v>0.8105184521264124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8907212225136165</v>
+        <v>0.8931530693163189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>475</v>
@@ -1000,19 +1000,19 @@
         <v>614743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>588627</v>
+        <v>590082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>636784</v>
+        <v>637467</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8596301065525958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8231104270709847</v>
+        <v>0.8251446829593595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8904519897469668</v>
+        <v>0.8914061772905317</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>54457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37811</v>
+        <v>38304</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75209</v>
+        <v>75269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1375448899863271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09550262509729109</v>
+        <v>0.0967459279919656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1899592755039176</v>
+        <v>0.1901115621099315</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -1050,19 +1050,19 @@
         <v>45925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34882</v>
+        <v>34106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60530</v>
+        <v>60483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1438738365058531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1092787774863837</v>
+        <v>0.1068469306836811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1896275137637358</v>
+        <v>0.1894815478735875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -1071,19 +1071,19 @@
         <v>100382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78341</v>
+        <v>77658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126498</v>
+        <v>125043</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1403698934474042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1095480102530331</v>
+        <v>0.1085938227094681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1768895729290152</v>
+        <v>0.1748553170406404</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>450778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>432070</v>
+        <v>431613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>466303</v>
+        <v>467403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8433188021006673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.808321466436277</v>
+        <v>0.8074649029364819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8723631601388688</v>
+        <v>0.8744227004033852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>459</v>
@@ -1196,19 +1196,19 @@
         <v>329052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>316163</v>
+        <v>315053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>341518</v>
+        <v>340740</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8317579737111025</v>
+        <v>0.8317579737111024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.799178352433514</v>
+        <v>0.7963733141537991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8632702261000845</v>
+        <v>0.8613034628193723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>856</v>
@@ -1217,19 +1217,19 @@
         <v>779828</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>756492</v>
+        <v>758192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>801109</v>
+        <v>800331</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8384017066483117</v>
+        <v>0.8384017066483118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8133129049418204</v>
+        <v>0.8151399962577733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8612805811821127</v>
+        <v>0.8604437219774768</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>83750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68225</v>
+        <v>67125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102458</v>
+        <v>102915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1566811978993328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1276368398611311</v>
+        <v>0.1255772995966147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1916785335637224</v>
+        <v>0.1925350970635181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -1267,19 +1267,19 @@
         <v>66558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54092</v>
+        <v>54870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79447</v>
+        <v>80557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1682420262888976</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1367297738999154</v>
+        <v>0.1386965371806277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2008216475664857</v>
+        <v>0.2036266858462007</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>160</v>
@@ -1288,19 +1288,19 @@
         <v>150309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129028</v>
+        <v>129806</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>173645</v>
+        <v>171945</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1615982933516882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1387194188178865</v>
+        <v>0.1395562780225233</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1866870950581795</v>
+        <v>0.1848600037422266</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>470863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>453407</v>
+        <v>451604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>487090</v>
+        <v>486243</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8645091458321371</v>
+        <v>0.864509145832137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.832459666069967</v>
+        <v>0.8291503411467758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8943034469575014</v>
+        <v>0.8927470069274211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>614</v>
@@ -1413,19 +1413,19 @@
         <v>390099</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>375798</v>
+        <v>377588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>401474</v>
+        <v>401321</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8576824761236347</v>
+        <v>0.8576824761236346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8262398006552526</v>
+        <v>0.8301750757310229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8826914957193936</v>
+        <v>0.8823548344766109</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1067</v>
@@ -1434,19 +1434,19 @@
         <v>860962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>840502</v>
+        <v>840700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>881606</v>
+        <v>881600</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8614025848155044</v>
+        <v>0.8614025848155045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8409324864425095</v>
+        <v>0.8411303952878124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8820576748572575</v>
+        <v>0.8820518403856786</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>73796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57569</v>
+        <v>58416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91252</v>
+        <v>93055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1354908541678631</v>
+        <v>0.135490854167863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1056965530424989</v>
+        <v>0.1072529930725786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1675403339300333</v>
+        <v>0.1708496588532241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1484,19 +1484,19 @@
         <v>64730</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53355</v>
+        <v>53508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79031</v>
+        <v>77241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1423175238763654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1173085042806063</v>
+        <v>0.1176451655233891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1737601993447472</v>
+        <v>0.1698249242689774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>164</v>
@@ -1505,19 +1505,19 @@
         <v>138526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117882</v>
+        <v>117888</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158986</v>
+        <v>158788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1385974151844957</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1179423251427428</v>
+        <v>0.1179481596143214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1590675135574905</v>
+        <v>0.1588696047121877</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>287615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>275849</v>
+        <v>275972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>298190</v>
+        <v>298332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8731381661565993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8374192870013338</v>
+        <v>0.8377913152858752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9052398563693379</v>
+        <v>0.9056726315537043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>342</v>
@@ -1630,19 +1630,19 @@
         <v>203040</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194226</v>
+        <v>194869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>209752</v>
+        <v>210733</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8745107742216316</v>
+        <v>0.8745107742216315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8365474062994849</v>
+        <v>0.839317622760512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9034189092493239</v>
+        <v>0.9076413564303459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>651</v>
@@ -1651,19 +1651,19 @@
         <v>490656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475814</v>
+        <v>476604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>503118</v>
+        <v>503508</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8737056486274084</v>
+        <v>0.8737056486274086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8472764470196045</v>
+        <v>0.8486848414018262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.895897790073273</v>
+        <v>0.896592215574514</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>41789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31214</v>
+        <v>31072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53555</v>
+        <v>53432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1268618338434007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0947601436306619</v>
+        <v>0.09432736844629565</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1625807129986661</v>
+        <v>0.1622086847141247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1701,19 +1701,19 @@
         <v>29136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22424</v>
+        <v>21443</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37950</v>
+        <v>37307</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1254892257783685</v>
+        <v>0.1254892257783684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0965810907506761</v>
+        <v>0.09235864356965427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1634525937005151</v>
+        <v>0.1606823772394881</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -1722,19 +1722,19 @@
         <v>70924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58462</v>
+        <v>58072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85766</v>
+        <v>84976</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1262943513725915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1041022099267273</v>
+        <v>0.1034077844254862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1527235529803957</v>
+        <v>0.1513151585981737</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>1627093</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1719</v>
@@ -1847,19 +1847,19 @@
         <v>1275986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3133</v>
@@ -1868,19 +1868,19 @@
         <v>2903080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>279492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -1918,19 +1918,19 @@
         <v>217577</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1456762339920042</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -1939,19 +1939,19 @@
         <v>497068</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1461901730513263</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="21">
